--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Id</t>
   </si>
@@ -68,7 +68,7 @@
     <t>abc123</t>
   </si>
   <si>
-    <t>Cod</t>
+    <t>Netbanking</t>
   </si>
   <si>
     <t>Suresh</t>
@@ -80,7 +80,7 @@
     <t>Silver</t>
   </si>
   <si>
-    <t xml:space="preserve"> Netbanking</t>
+    <t>CreditCard</t>
   </si>
   <si>
     <t>Paresh</t>
@@ -92,21 +92,18 @@
     <t>Platinum</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>abc1234</t>
   </si>
   <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
     <t>Nitin</t>
   </si>
   <si>
     <t>solanki</t>
   </si>
   <si>
+    <t>Goldefgdfg</t>
+  </si>
+  <si>
     <t>Mukesh</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>abc142</t>
-  </si>
-  <si>
-    <t>Netbanking</t>
   </si>
 </sst>
 </file>
@@ -124,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -157,6 +151,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -165,8 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,16 +197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +243,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,45 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,55 +310,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,31 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,85 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +517,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,6 +546,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,35 +566,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,12 +584,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,136 +615,133 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,12 +1080,13 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1143,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>156456</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1216,19 +1211,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>8453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>3333</v>
@@ -1239,13 +1234,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1254,7 +1249,7 @@
         <v>47689</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1263,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>4444</v>
@@ -1274,13 +1269,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1295,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>5555</v>

--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>Id</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>solanki</t>
-  </si>
-  <si>
-    <t>Goldefgdfg</t>
   </si>
   <si>
     <t>Mukesh</t>
@@ -118,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -151,25 +148,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,38 +180,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +211,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -244,6 +242,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -251,45 +256,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,31 +301,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,151 +457,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,15 +509,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,11 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +558,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,23 +592,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,136 +612,133 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,13 +1077,15 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="9.57142857142857"/>
+    <col min="6" max="6" width="10.5714285714286"/>
+    <col min="8" max="8" width="13.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1138,10 +1137,10 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>156456</v>
+        <v>41566</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1208,10 +1207,10 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>165464</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1240,10 +1239,10 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>47689</v>
@@ -1269,16 +1268,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>45689</v>
@@ -1290,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>

--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Id</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>patel</t>
-  </si>
-  <si>
-    <t>Platinum</t>
   </si>
   <si>
     <t>abc1234</t>
@@ -116,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -144,29 +141,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,9 +191,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,16 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +260,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,52 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,73 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,109 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +489,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,16 +541,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -577,168 +589,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1204,10 +1201,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>165464</v>
@@ -1219,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1233,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1268,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1289,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>

--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15930" windowHeight="7185"/>
+    <workbookView windowHeight="7185" windowWidth="15930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C9"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
   <si>
     <t>Id</t>
   </si>
@@ -23,10 +24,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Choice</t>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>SeatChoice</t>
   </si>
   <si>
     <t>SeatCount</t>
@@ -47,64 +48,112 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>BankAccount</t>
+    <t>AccountNumber</t>
   </si>
   <si>
     <t>Ramesh</t>
   </si>
   <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>Paresh</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Nitin</t>
+  </si>
+  <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>Netbanking</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>sharma</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>Paresh</t>
-  </si>
-  <si>
-    <t>patel</t>
-  </si>
-  <si>
-    <t>abc1234</t>
-  </si>
-  <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>solanki</t>
-  </si>
-  <si>
     <t>Mukesh</t>
   </si>
   <si>
-    <t>Verma</t>
+    <t>Gandhi</t>
   </si>
   <si>
     <t>abc142</t>
+  </si>
+  <si>
+    <t>Seat Type</t>
+  </si>
+  <si>
+    <t>Total Charges</t>
+  </si>
+  <si>
+    <t>Number of Seats</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>20020.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>920.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4520.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Revenue:</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -113,35 +162,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF303336"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF7D2727"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,18 +182,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +197,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -193,21 +222,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,37 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -258,16 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +288,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,19 +328,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,31 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,127 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +519,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,24 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +561,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,230 +598,230 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="13" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -813,15 +830,1300 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Host Control  1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Host Control  2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Host Control  3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Host Control  4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Host Control  5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1524000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="Host Control  6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1714500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="Host Control  7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1905000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1905000"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="Host Control  8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Edit" id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Copy" id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="Delete" id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="2095500"/>
+          <a:ext cx="10160" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -985,21 +2287,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1016,7 +2318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1069,30 +2371,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
-  <cols>
-    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857"/>
-    <col min="6" max="6" width="10.5714285714286"/>
-    <col min="8" max="8" width="13.5714285714286" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1121,7 +2417,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1134,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>41566</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1156,7 +2452,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1169,10 +2465,10 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>74575</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1191,7 +2487,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1201,13 +2497,13 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>165464</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1216,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1226,7 +2522,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1239,10 +2535,10 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>47689</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1261,7 +2557,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1271,13 +2567,13 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>45689</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1289,14 +2585,117 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>5555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="0">
   <si>
     <t>Id</t>
   </si>
@@ -60,27 +60,36 @@
     <t>Gold</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>abc1234</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Silvere</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>SignUp</t>
   </si>
   <si>
     <t>abc123</t>
   </si>
   <si>
-    <t>NetBanking</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
     <t>CreditCard</t>
   </si>
   <si>
@@ -102,9 +111,6 @@
     <t>Mukesh</t>
   </si>
   <si>
-    <t>Gandhi</t>
-  </si>
-  <si>
     <t>abc142</t>
   </si>
   <si>
@@ -120,40 +126,43 @@
     <t>Time</t>
   </si>
   <si>
-    <t>20020.0</t>
+    <t>4520.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>820.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Revenue:</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>6:00</t>
-  </si>
-  <si>
-    <t>920.0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4520.0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Revenue:</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -161,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,8 +184,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,32 +259,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,67 +299,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -313,7 +314,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,15 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,6 +542,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,39 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,151 +610,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="19" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="13" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2376,10 +2385,13 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="5" max="5" width="9.57142857142857" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2430,10 +2442,10 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15416</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -2465,22 +2477,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4744</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>2222</v>
@@ -2491,22 +2503,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2526,34 +2538,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4255</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>4444</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2561,31 +2573,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15636</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>5555</v>
@@ -2601,97 +2613,131 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7185" windowWidth="15930"/>
+    <workbookView windowWidth="15930" windowHeight="7185"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="User Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Booked User" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:G10"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Id</t>
   </si>
@@ -60,60 +60,60 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Login</t>
   </si>
   <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>Paresh</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
     <t>abc1234</t>
   </si>
   <si>
-    <t>NetBanking</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>Silvere</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Nitin</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
   <si>
     <t>SignUp</t>
   </si>
   <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>Paresh</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
     <t>Mukesh</t>
   </si>
   <si>
     <t>abc142</t>
   </si>
   <si>
+    <t>dghf</t>
+  </si>
+  <si>
     <t>Seat Type</t>
   </si>
   <si>
@@ -126,43 +126,25 @@
     <t>Time</t>
   </si>
   <si>
-    <t>4520.0</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>820.0</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>6:00</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>820.0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Revenue:</t>
   </si>
   <si>
-    <t>40</t>
+    <t>20</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
 </sst>
 </file>
@@ -185,7 +167,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -193,7 +199,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,11 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,38 +265,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,29 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -298,31 +295,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,37 +325,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,139 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +510,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,30 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,6 +548,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +587,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -619,218 +610,209 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="19" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -840,7 +822,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -890,7 +872,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -932,7 +914,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -974,7 +956,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1050,7 +1032,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1092,7 +1074,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1134,7 +1116,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1210,7 +1192,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1252,7 +1234,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1294,7 +1276,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1370,7 +1352,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1412,7 +1394,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1454,7 +1436,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1530,7 +1512,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1572,7 +1554,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1614,7 +1596,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1690,7 +1672,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1732,7 +1714,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1774,7 +1756,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1850,7 +1832,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1892,7 +1874,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1934,7 +1916,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2010,7 +1992,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Edit" id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Edit"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2052,7 +2034,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Copy" id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Copy"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2094,7 +2076,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Delete" id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Delete"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2129,10 +2111,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2296,21 +2278,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2327,7 +2309,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2380,17 +2362,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="9.57142857142857" collapsed="false"/>
+    <col min="5" max="5" width="9.57142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2445,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>15416</v>
+        <v>820</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -2483,16 +2465,16 @@
         <v>4744</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
       <c r="K3">
         <v>2222</v>
@@ -2503,28 +2485,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -2538,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -2553,19 +2535,19 @@
         <v>4255</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>5555</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2573,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2588,40 +2570,40 @@
         <v>15636</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
       </c>
       <c r="K6">
         <v>5555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2638,12 +2620,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -2655,93 +2637,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15930" windowHeight="7185"/>
+    <workbookView windowHeight="7185" windowWidth="15930"/>
   </bookViews>
   <sheets>
-    <sheet name="User Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Booked User" sheetId="2" r:id="rId2"/>
+    <sheet name="User Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Booked User" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:G10"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="3">
   <si>
     <t>Id</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -612,207 +621,207 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="5" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -822,7 +831,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -872,7 +881,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -914,7 +923,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -956,7 +965,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1032,7 +1041,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1074,7 +1083,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1116,7 +1125,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1192,7 +1201,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1234,7 +1243,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1276,7 +1285,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1352,7 +1361,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1394,7 +1403,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="12" name="Picture 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1436,7 +1445,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="13" name="Picture 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1512,7 +1521,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1554,7 +1563,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1596,7 +1605,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1672,7 +1681,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="17" name="Picture 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1714,7 +1723,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="18" name="Picture 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1756,7 +1765,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="19" name="Picture 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1832,7 +1841,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1874,7 +1883,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="21" name="Picture 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1916,7 +1925,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="22" name="Picture 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1992,7 +2001,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="Edit"/>
+        <xdr:cNvPr descr="Edit" id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2034,7 +2043,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="Copy"/>
+        <xdr:cNvPr descr="Copy" id="24" name="Picture 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2076,7 +2085,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="Delete"/>
+        <xdr:cNvPr descr="Delete" id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2111,10 +2120,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2278,21 +2287,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2309,7 +2318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2362,9 +2371,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2372,7 +2381,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="9.57142857142857"/>
+    <col min="5" max="5" width="9.57142857142857" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2586,24 +2595,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2637,25 +2643,41 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="2">
   <si>
     <t>Id</t>
   </si>
@@ -54,51 +54,54 @@
     <t>Ramesh</t>
   </si>
   <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>Paresh</t>
+  </si>
+  <si>
+    <t>Shukla</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>abc1234</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
     <t>Sharma</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>abc123</t>
-  </si>
-  <si>
-    <t>NetBanking</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>Paresh</t>
-  </si>
-  <si>
-    <t>Shukla</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>abc1234</t>
-  </si>
-  <si>
-    <t>Kunal</t>
-  </si>
-  <si>
     <t>abc1235</t>
   </si>
   <si>
@@ -126,49 +129,49 @@
     <t>Time</t>
   </si>
   <si>
-    <t>3020.0</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>6:00</t>
   </si>
   <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1520.0</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>9020.0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>4220.0</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>9020.0</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Revenue:</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1020.0</t>
+  </si>
+  <si>
     <t>100</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -176,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,38 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +216,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -244,52 +270,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,32 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,17 +543,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +575,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,186 +637,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="3" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="12" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="25" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="15" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1109,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1160,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>778889</v>
@@ -1259,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1277,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>4444</v>
@@ -1291,10 +1294,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1312,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1337,19 +1340,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -1360,13 +1363,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1377,13 +1380,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1394,13 +1397,13 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -1411,47 +1414,47 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7185" windowWidth="15930"/>
+    <workbookView windowWidth="15930" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Booked User" r:id="rId6" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Booked User" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:K6"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Id</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Ramesh</t>
   </si>
   <si>
-    <t>Patel</t>
+    <t>Kumar</t>
   </si>
   <si>
     <t>Gold</t>
@@ -114,6 +114,15 @@
     <t>abc142</t>
   </si>
   <si>
+    <t>kunal</t>
+  </si>
+  <si>
+    <t>kapoor</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -156,22 +165,19 @@
     <t>14</t>
   </si>
   <si>
+    <t>420.0</t>
+  </si>
+  <si>
     <t>Revenue:</t>
   </si>
   <si>
-    <t>80</t>
+    <t>120</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>1020.0</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
 </sst>
 </file>
@@ -193,8 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +212,21 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,105 +240,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,8 +276,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,73 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,79 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,11 +546,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,61 +609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,209 +632,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="25" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -853,10 +859,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1020,21 +1026,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1051,7 +1057,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1104,15 +1110,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="11.7142857142857"/>
+    <col min="10" max="10" width="11.7142857142857"/>
+    <col min="11" max="11" width="12.8571428571429"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1166,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>778889</v>
+        <v>144895</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1324,140 +1335,231 @@
         <v>5555</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>45645</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>45645</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>7777</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelDemo.xlsx
+++ b/ExcelDemo.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15930" windowHeight="8250"/>
+    <workbookView windowHeight="8250" windowWidth="15930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Booked User" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Booked User" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:K6"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Silver</t>
   </si>
   <si>
+    <t>SignUp</t>
+  </si>
+  <si>
     <t>CreditCard</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t>yes</t>
   </si>
   <si>
+    <t>Sagar</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -138,46 +144,28 @@
     <t>Time</t>
   </si>
   <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>Revenue:</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>20020.0</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>6:00</t>
   </si>
   <si>
-    <t>1520.0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9020.0</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>4220.0</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>420.0</t>
-  </si>
-  <si>
-    <t>Revenue:</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -186,11 +174,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,24 +187,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9.75"/>
+      <color rgb="FF7D2727"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,44 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -276,6 +268,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,6 +300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -292,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,39 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,35 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +559,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -611,30 +596,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,209 +604,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="29" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="13" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -859,10 +856,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1026,21 +1023,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1057,7 +1054,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1110,19 +1107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857"/>
-    <col min="10" max="10" width="11.7142857142857"/>
-    <col min="11" max="11" width="12.8571428571429"/>
+    <col min="1" max="1" width="12.8571428571429" collapsed="false"/>
+    <col min="10" max="10" width="11.7142857142857" collapsed="false"/>
+    <col min="11" max="11" width="12.8571428571429" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1161,7 +1158,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1174,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>144895</v>
@@ -1192,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>1111</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1209,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>454545</v>
@@ -1218,13 +1215,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>2222</v>
@@ -1235,13 +1232,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1256,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1270,16 +1267,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>596465</v>
@@ -1291,10 +1288,10 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>4444</v>
@@ -1305,13 +1302,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -1326,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1340,13 +1337,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1355,7 +1352,7 @@
         <v>45645</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1375,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1390,7 +1387,7 @@
         <v>45645</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1405,161 +1402,107 @@
         <v>7777</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>45645</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>8888</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>